--- a/biology/Botanique/Gaston_Bonnier/Gaston_Bonnier.xlsx
+++ b/biology/Botanique/Gaston_Bonnier/Gaston_Bonnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaston Eugène Marie Bonnier (né le 9 avril 1853 à Paris - mort le 30 décembre 1922 à Paris) est un botaniste français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issu d'une famille de tisseurs originaire de Lille[1], Gaston Bonnier est le fils d'Édouard Bonnier (1808-1877), professeur à la faculté de droit de Paris[2] auteur en 1888 d'un Traité théorique et pratique des preuves en droit civil et en droit criminel. Sa mère, Elzéarine dite Zari, est auteur de plusieurs romans et fille de Joseph Ortolan, lui aussi professeur de droit. Gaston est le cadet de la famille. Son frère, Elzéar Bonnier-Ortolan, suit la voie paternelle en devenant avocat.
-Élève au lycée Henri-IV avec Émile Picard et Émile Boutroux[3], Bonnier s'engage volontaire comme artilleur durant la guerre franco-prussienne de 1870. Il fait ses études à l’École normale supérieure de 1873 à 1876. Bonnier obtient sa licence en 1875 de sciences physiques ainsi que celle de mathématiques[4], son agrégation de sciences physiques et naturelles en 1876[5] et enfin son doctorat en 1879 et devient maître de conférences. Ses premiers travaux intitulés Les nectaires, étude critique, anatomique et physiologique portent sur les plantes produisant le nectar et lui ont été inspirés lors d'un séjour en montagne auprès de son cousin apiculteur Georges de Layens[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu d'une famille de tisseurs originaire de Lille, Gaston Bonnier est le fils d'Édouard Bonnier (1808-1877), professeur à la faculté de droit de Paris auteur en 1888 d'un Traité théorique et pratique des preuves en droit civil et en droit criminel. Sa mère, Elzéarine dite Zari, est auteur de plusieurs romans et fille de Joseph Ortolan, lui aussi professeur de droit. Gaston est le cadet de la famille. Son frère, Elzéar Bonnier-Ortolan, suit la voie paternelle en devenant avocat.
+Élève au lycée Henri-IV avec Émile Picard et Émile Boutroux, Bonnier s'engage volontaire comme artilleur durant la guerre franco-prussienne de 1870. Il fait ses études à l’École normale supérieure de 1873 à 1876. Bonnier obtient sa licence en 1875 de sciences physiques ainsi que celle de mathématiques, son agrégation de sciences physiques et naturelles en 1876 et enfin son doctorat en 1879 et devient maître de conférences. Ses premiers travaux intitulés Les nectaires, étude critique, anatomique et physiologique portent sur les plantes produisant le nectar et lui ont été inspirés lors d'un séjour en montagne auprès de son cousin apiculteur Georges de Layens.
 Il se marie en 1881 avec la fille du professeur Philippe Van Tieghem (1839-1914), du Muséum national d'histoire naturelle et membre de l’Académie des sciences. De cette union naîtra une seule fille. Elle épousera Raoul Combes (1883-1964), professeur de botanique à la faculté des sciences de Paris. Nommé directeur du laboratoire de botanique en 1886, Bonnier enseigne la botanique à la faculté des sciences de Paris à partir de 1887 et jusqu’à sa mort. En 1889, il participe à la fondation de la Revue générale de botanique, qu’il dirige jusqu’en 1922, et fonde la même année un laboratoire de biologie végétale à Fontainebleau.
-Il est élu membre de l'Académie des sciences en 1897. Il est membre de diverses sociétés savantes dont la Société botanique de France (qu’il préside en 1890), la Société de biologie, la Société centrale d'apiculture (qu’il préside de 1909 à 1921[7]), etc. Il est membre des académies de Vienne et de Pétrograd. Toutes ses activités font qu'il est nommé chevalier de la Légion d'honneur le 13 juillet 1893 puis promu officier le 16 janvier 1914[8].
+Il est élu membre de l'Académie des sciences en 1897. Il est membre de diverses sociétés savantes dont la Société botanique de France (qu’il préside en 1890), la Société de biologie, la Société centrale d'apiculture (qu’il préside de 1909 à 1921), etc. Il est membre des académies de Vienne et de Pétrograd. Toutes ses activités font qu'il est nommé chevalier de la Légion d'honneur le 13 juillet 1893 puis promu officier le 16 janvier 1914.
 Chercheur, il a ouvert de nombreuses voies de recherche dans des domaines aussi variés que la systématique, la biogéographie, l'écologie et la physiologie végétales. Il a publié de très nombreux ouvrages destinés à l'enseignement ou à la pédagogie, notamment une foule de manuels scolaires portant sur les différentes matières de l'histoire naturelle (zoologie, botanique, géologie). Ses ouvrages les plus célèbres sont toutefois ceux consacrés à l'étude de la flore de France, qui ont été réédités constamment jusqu'à nos jours.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Liste complète des « Flores » de Gaston Bonnier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Georges de Layens (1834-1897) Nouvelle Flore pour la détermination facile des plantes sans mots techniques, avec 2145 figures inédites représentant toutes les espèces vasculaires des environs de Paris, dans un rayon de 100 kilomètres, des départements de l'Eure, de l'Eure-et-Loir, etc. et des plantes communes dans l'intérieur de la France. (Paul Dupont, Paris, première édition 1886, nombreuses rééditions). Ouvrage permettant la détermination des plantes croissant en région parisienne, aujourd'hui réédité par Belin. Complété en 1906 par l' Album de la Nouvelle Flore représentant toutes les espèces de plantes photographiées directement d'après nature au cinquième de leur grandeur naturelle. 2028 photographies figurant toutes les espèces des environs de Paris dans un rayon de 100 kilomètres, et les espèces communes dans l'intérieur de la France (Librairie générale de l'enseignement, Paris, 1906).
 Le Tome II. Nouvelle Flore des Mousses et des Hépatiques pour la détermination facile des espèces, avec 1288 figures inédites représentant toutes les Mousses et Hépatiques des environs de Paris, des départements voisins, et les espèces communes d'Europe est signé Isidore Douin (1858-1944). (Paul Dupont, Paris, 1891).
@@ -600,7 +616,9 @@
           <t>Liste partielle des autres publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>N.B. : la plupart des ouvrages scolaires signés par Bonnier ont été omis.
 Les Nectaires, étude critique, anatomique et physiologique, Paris, Masso, 1879, [numérisé par la Bibliothèque universitaire Pierre et Marie Curie (BUPMC)]
